--- a/fuentes/contenidos/grado09/guion11/SolicitudGrafica_MA_09_11_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion11/SolicitudGrafica_MA_09_11_CO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristhianAndres\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="10725" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="198">
   <si>
     <t>Fecha:</t>
   </si>
@@ -590,177 +590,37 @@
     <t>Trabajar un video</t>
   </si>
   <si>
+    <t>Cuerpos geometricos</t>
+  </si>
+  <si>
+    <t>Cristhian Bello Rivera</t>
+  </si>
+  <si>
+    <t>MA_09_11_CO</t>
+  </si>
+  <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuerpos geométricos  </t>
-  </si>
-  <si>
-    <t>MA_09_11_CO</t>
+    <t>Ver descripción</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si es posible resalar los meridianos y paralelos que se señalan con las flechas. </t>
+  </si>
+  <si>
+    <t>Circunscribir sobre el planeta tierra un cilindro como en la imagen que se presenta en esta casilla, rem´plazando la esfera por la tierra</t>
+  </si>
+  <si>
+    <t>Sobre la imagen del planeta tierra dibujar un cono como se muestra en la figura de esta casilla</t>
+  </si>
+  <si>
+    <t>Dibujar una esfera y desde el centro porverctar los rayos sobre unplano</t>
   </si>
   <si>
     <t>Fotografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edificios </t>
-  </si>
-  <si>
-    <t>http://www.shutterstock.com/subscribe?clicksrc=inline_thumb</t>
-  </si>
-  <si>
-    <t>Ilustración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectángulo y cilindro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girando al rectángulo sobre uno de sus lados se genera el cilindro, Las partes del cilindro. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objetos con forma de cilindro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangulo rectángulo y cono  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girando el triangulo rectángulo sobre uno de sus catetos se obtiene el cono,  Las partes del cono 
-</t>
-  </si>
-  <si>
-    <t>Objetos con forma de cilindro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> un collage con objetos  reales   que tiene imagen de cilindro:  Tubos, Pilas, Pocillo, rollo de papel, pastas, rayos de bicicleta, carretilla de hilo, lápiz, vaso, lámparas fluorescentes, cable, telescopio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un collage con objetos  reales   que tiene forma de cono:Conos de señalización, embudos, barquillos de helado, algunos árboles, sobreros, diseños arquitectónicos, las zanahorias   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circunferencia y esfera  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girando la circunferencia sobre uno de sus diámetros para obtener la esfera, Las partes de la esfera
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objetos con forma de esfera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">un collage con objetos  reales   que tiene forma de esfera: Los planetas, balón, canicas, bolas de billar, naranjas, el sol
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poliedro y sus partes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El cubo es un poliedro.
-Las partes del poliedro.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólidos platónicos </t>
-  </si>
-  <si>
-    <t>http://thumb9.shutterstock.com/display_pic_with_logo/709981/117150046/stock-vector-colorful-set-of-geometric-shapes-platonic-solids-vector-illustration-117150046.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirámide </t>
-  </si>
-  <si>
-    <t>http://image.shutterstock.com/display_pic_with_logo/377611/341290805/stock-photo-giza-egypt-september-tourists-are-walking-near-the-great-pyramid-of-giza-unesco-world-341290805.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prisma </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prisma y sus partes.</t>
-  </si>
-  <si>
-    <t>Objetos con forma de prisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un collage con objetos  reales   que tiene forma de prisma: Cajas, celulares, carpas, ladrillos, edificios, acuarios   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirámide  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">la pirámide y sus partes </t>
-  </si>
-  <si>
-    <t>Construcciones con forma de pirámide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un collage con objetos  reales   que tiene forma de piramide:Construcciones arquitectónicas, ideas de jerarquización. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapecio y tronco de cono </t>
-  </si>
-  <si>
-    <t xml:space="preserve">girando al trapecio rectangular por su lado perpendicular a las bases se genera un tronco de cono 
- las partes del tronco de cono. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construcciones con forma de tronco de cono </t>
-  </si>
-  <si>
-    <t>un collage con objetos  reales   que tiene forma de piramide:  Maceta, lámpara,  balde,  tambores, cestos, diseño de las construcciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tronco de pirámide </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tronco de pirámide y sus partes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa del mundo </t>
-  </si>
-  <si>
-    <t>http://image.shutterstock.com/display_pic_with_logo/82956/82956,1314341677,23/stock-photo-antique-map-of-the-world-antique-map-by-ortelius-circa-83735404.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proyecciones cartográficas </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Netzentwuerfe.png/300px-Netzentwuerfe.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquema proyección cilíndrica </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/5/52/Projection_cylindrique.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado de una proyección cilíndrica de la tierra  </t>
-  </si>
-  <si>
-    <t>http://thumb7.shutterstock.com/display_pic_with_logo/78065/129602879/stock-photo-original-old-hand-coloured-map-of-the-world-on-mercators-projection-circa-the-countries-are-129602879.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquema proyección cónica </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/8/85/Projection_conique.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado de una proyección cónica desde el hemisferio norte de la tierra  </t>
-  </si>
-  <si>
-    <t>http://thumb9.shutterstock.com/display_pic_with_logo/222136/222136,1231105197,2/stock-vector-a-colored-vector-map-of-the-northern-hemisphere-using-the-albers-projection-showing-a-map-grid-and-22768246.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquema proyección acimutal </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5d/Projection_azimutale_gnomonique.jpg/280px-Projection_azimutale_gnomonique.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado de una proyección acimutal desde el polo norte de la tierra  </t>
-  </si>
-  <si>
-    <t>http://thumb101.shutterstock.com/display_pic_with_logo/222136/222136,1231106501,3/stock-vector-a-colored-vector-map-of-the-northern-hemisphere-with-a-map-grid-that-uses-a-polar-stereographic-22769116.jpg</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1478,9 +1338,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1703,12 +1562,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,7 +1661,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1834,7 +1687,6 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1931,6 +1783,1345 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309830</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>324972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3017963</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1580032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14014624" y="2476501"/>
+          <a:ext cx="2708133" cy="1255060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661146</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>257735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2655793</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1703294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="http://img.webme.com/pic/d/dibujotecnicoudo/solido.8.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14365940" y="4684059"/>
+          <a:ext cx="1994647" cy="1445559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>519546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2759710</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1804151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="http://upload.wikimedia.org/wikipedia/commons/thumb/9/9e/Circle_cones_01.png/250px-Circle_cones_01.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14079682" y="6909955"/>
+          <a:ext cx="2378710" cy="1284605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>519545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2684317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1697182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="I:\guion 11\imagenes guion 11\2.JPG"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14131636" y="9109363"/>
+          <a:ext cx="2251363" cy="1177637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>173182</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>69273</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2580409</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>1574176</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>813955</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>205513</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2407228</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>1404504</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>848591</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>519546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2374496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1624446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7" descr="https://elblogdematedeaida.files.wordpress.com/2012/12/arquimedes-cilindro-y-esfera-2.jpg?w=300&amp;h=218"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14547273" y="14547273"/>
+          <a:ext cx="1525905" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2424545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1541317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="I:\guion 11\imagenes guion 11\4.JPG"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14270182" y="16192499"/>
+          <a:ext cx="1853045" cy="1437409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1860839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10" descr="http://thumb9.shutterstock.com/display_pic_with_logo/709981/117150046/stock-vector-colorful-set-of-geometric-shapes-platonic-solids-vector-illustration-117150046.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14374091" y="18270682"/>
+          <a:ext cx="1801091" cy="1756930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2580409</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1879889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11" descr="http://thumb7.shutterstock.com/display_pic_with_logo/377611/341290805/stock-photo-giza-egypt-september-tourists-are-walking-near-the-great-pyramid-of-giza-unesco-world-341290805.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14183591" y="20331546"/>
+          <a:ext cx="2095500" cy="1602798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3058275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1685002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12" descr="F:\guion 11\imagenes guion 11\5.JPG"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13837227" y="22132637"/>
+          <a:ext cx="2919730" cy="1650365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>554182</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>242454</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2373457</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>1318779</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>294408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2805545</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1959840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14" descr="E:\guion 11\imagenes guion 11\7.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14079682" y="25717499"/>
+          <a:ext cx="2424545" cy="1665432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>329046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2718955</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1529138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15" descr="http://www.universoformulas.com/imagenes/matematicas/geometria/tipos-piramide-rectangular.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14304819" y="27899591"/>
+          <a:ext cx="2112818" cy="1200092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2780781</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1531332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16" descr="I:\guion 11\imagenes guion 11\6.JPG"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13837228" y="29562137"/>
+          <a:ext cx="2642235" cy="1306195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2822864</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1573473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17" descr="I:\guion 11\imagenes guion 11\8.JPG"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14304819" y="31276637"/>
+          <a:ext cx="2216727" cy="1469563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2389909</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1850736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18" descr="Antique Map of the World,  Antique map by Ortelius, circa 1570"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14114318" y="33424091"/>
+          <a:ext cx="1974273" cy="1469736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>398801</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>75620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2632364</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>1922318</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236342</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2366478</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2084296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20" descr="http://thumb1.shutterstock.com/display_pic_with_logo/875032/144896830/stock-vector-planet-earth-over-sky-background-vector-illustration-144896830.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13941136" y="37138333"/>
+          <a:ext cx="2130136" cy="2026228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1592036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21" descr="https://upload.wikimedia.org/wikipedia/commons/5/52/Projection_cylindrique.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17267464" y="37133893"/>
+          <a:ext cx="1598386" cy="1537607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2853236</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1728108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22" descr="http://thumb7.shutterstock.com/display_pic_with_logo/78065/129602879/stock-photo-original-old-hand-coloured-map-of-the-world-on-mercators-projection-circa-the-countries-are-129602879.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14097000" y="39732858"/>
+          <a:ext cx="2472236" cy="1510393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1755321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23" descr="http://thumb1.shutterstock.com/display_pic_with_logo/875032/144896830/stock-vector-planet-earth-over-sky-background-vector-illustration-144896830.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14450786" y="41733107"/>
+          <a:ext cx="1455964" cy="1551214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1751058</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1593941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24" descr="https://upload.wikimedia.org/wikipedia/commons/8/85/Projection_conique.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17226643" y="41692286"/>
+          <a:ext cx="1383665" cy="1430655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2558143</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1224644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25" descr="http://thumb9.shutterstock.com/display_pic_with_logo/222136/222136,1231105197,2/stock-vector-a-colored-vector-map-of-the-northern-hemisphere-using-the-albers-projection-showing-a-map-grid-and-22768246.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14233072" y="44155180"/>
+          <a:ext cx="2041071" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2656931</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1565638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26" descr="https://upload.wikimedia.org/wikipedia/commons/5/5d/Projection_azimutale_gnomonique.jpg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14069786" y="45475072"/>
+          <a:ext cx="2303145" cy="1483995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1938,13 +3129,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1991,15 +3182,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2048,13 +3239,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2103,13 +3294,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2117,171 +3308,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2066925</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2085975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1724025</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2640,13 +3666,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2660,7 +3686,7 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="41.25" style="15" customWidth="1"/>
     <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
@@ -2692,14 +3718,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2723,14 +3749,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="87">
         <v>9</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="F3" s="82">
-        <v>42399</v>
-      </c>
-      <c r="G3" s="83"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
+        <v>42451</v>
+      </c>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2754,16 +3780,16 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="C4" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="38"/>
@@ -2786,8 +3812,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2869,12 +3897,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2930,23 +3958,23 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>192</v>
+      <c r="B10" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2964,30 +3992,30 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="63" t="s">
-        <v>191</v>
-      </c>
+      <c r="J10" s="63"/>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -3005,32 +4033,30 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>195</v>
-      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3048,32 +4074,30 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>200</v>
-      </c>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3091,32 +4115,30 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>198</v>
-      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3134,32 +4156,30 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="64" t="s">
-        <v>201</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3177,32 +4197,30 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>203</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3220,32 +4238,30 @@
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>205</v>
-      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3263,34 +4279,30 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>207</v>
-      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>209</v>
+      <c r="B18" s="62">
+        <v>117150046</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3308,32 +4320,30 @@
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="66" t="s">
-        <v>208</v>
-      </c>
+      <c r="J18" s="66"/>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>211</v>
+      <c r="B19" s="62">
+        <v>34290805</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3351,30 +4361,30 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>210</v>
-      </c>
+      <c r="J19" s="67"/>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3392,32 +4402,30 @@
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>213</v>
-      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3435,32 +4443,30 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>215</v>
-      </c>
+      <c r="J21"/>
+      <c r="K21" s="66"/>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3478,32 +4484,30 @@
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" s="69" t="s">
-        <v>217</v>
-      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3521,32 +4525,30 @@
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="K23" s="64" t="s">
-        <v>219</v>
-      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3564,32 +4566,30 @@
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="K24" s="65" t="s">
-        <v>221</v>
-      </c>
+      <c r="J24" s="63"/>
+      <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3607,28 +4607,26 @@
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="62">
+        <v>83735404</v>
+      </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3646,30 +4644,26 @@
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG18</v>
       </c>
-      <c r="B27" s="78" t="s">
-        <v>227</v>
+      <c r="B27" s="62">
+        <v>137165015</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3687,29 +4681,29 @@
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="K27" s="64"/>
+      <c r="J27"/>
+      <c r="K27" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG19</v>
       </c>
-      <c r="B28" s="79" t="s">
-        <v>229</v>
+      <c r="B28" s="62">
+        <v>144896830</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3727,28 +4721,28 @@
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="K28" s="64"/>
-    </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J28" s="64"/>
+      <c r="K28" s="64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG20</v>
       </c>
-      <c r="B29" s="79" t="s">
-        <v>231</v>
+      <c r="B29" s="62">
+        <v>1299602879</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3766,28 +4760,26 @@
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="64" t="s">
-        <v>230</v>
-      </c>
+      <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG21</v>
       </c>
-      <c r="B30" s="79" t="s">
-        <v>233</v>
+      <c r="B30" s="62">
+        <v>144896830</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3805,28 +4797,28 @@
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="64"/>
-    </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J30" s="64"/>
+      <c r="K30" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG22</v>
       </c>
-      <c r="B31" s="79" t="s">
-        <v>235</v>
+      <c r="B31" s="62">
+        <v>22768246</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F31" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3844,28 +4836,26 @@
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="64" t="s">
-        <v>234</v>
-      </c>
+      <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG23</v>
       </c>
-      <c r="B32" s="79" t="s">
-        <v>237</v>
+      <c r="B32" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F32" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3883,28 +4873,28 @@
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="K32" s="64"/>
-    </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="J32" s="64"/>
+      <c r="K32" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG24</v>
       </c>
-      <c r="B33" s="79" t="s">
-        <v>239</v>
+      <c r="B33" s="62">
+        <v>22769116</v>
       </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F33" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3922,48 +4912,38 @@
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="64" t="s">
-        <v>238</v>
-      </c>
+      <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG25</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>241</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B34" s="62"/>
       <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>154</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_11_CO_IMG25_small</v>
+        <v/>
       </c>
       <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H34" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_11_CO_IMG25_zoom</v>
+        <v/>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J34" s="64" t="s">
-        <v>240</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J34" s="64"/>
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
@@ -5674,35 +6654,33 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="e">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B90" s="78" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B90" s="62"/>
       <c r="C90" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>Cuaderno de Estudio</v>
+        <v/>
       </c>
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
-      <c r="F90" s="13" t="e">
+      <c r="F90" s="13" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" s="13" t="e">
+        <v/>
+      </c>
+      <c r="G90" s="13" t="str">
         <f ca="1">IF($F90&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H90" s="13" t="e">
+        <v/>
+      </c>
+      <c r="H90" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I90" s="13" t="str">
         <f ca="1">IF(OR($B90&lt;&gt;"",$J90&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
@@ -6305,22 +7283,112 @@
       <formula1>$O$2:$O$27</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B90" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B18" r:id="rId3"/>
-    <hyperlink ref="B19" r:id="rId4"/>
-    <hyperlink ref="B27" r:id="rId5"/>
-    <hyperlink ref="B28" r:id="rId6"/>
-    <hyperlink ref="B29" r:id="rId7"/>
-    <hyperlink ref="B30" r:id="rId8"/>
-    <hyperlink ref="B31" r:id="rId9"/>
-    <hyperlink ref="B32" r:id="rId10"/>
-    <hyperlink ref="B33" r:id="rId11"/>
-    <hyperlink ref="B34" r:id="rId12"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2051" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2581275</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>1571625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2051" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2052" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>809625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2409825</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>1400175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2052" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2054" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2371725</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>1314450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2054" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2056" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2628900</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>1924050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2056" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -6345,25 +7413,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6371,11 +7439,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6426,11 +7494,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="107" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6475,12 +7543,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="93" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6574,14 +7642,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6614,12 +7682,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6659,12 +7727,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="101" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6680,12 +7748,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="93" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6900,13 +7968,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6920,15 +7988,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6944,13 +8012,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6966,13 +8034,13 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6986,15 +8054,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7008,15 +8076,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7030,7 +8098,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
@@ -7038,7 +8106,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7056,7 +8124,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -7076,40 +8144,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="109"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
